--- a/Gabriel/Procedimentos.xlsx
+++ b/Gabriel/Procedimentos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/delfos/Gabriel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\delfos\Gabriel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D28B6-2E7D-4568-87F0-A4DA548331A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27300" windowHeight="25100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>TAREFAS</t>
   </si>
@@ -155,9 +147,6 @@
     <t>Alterar div row input (text)</t>
   </si>
   <si>
-    <t>Alterar &lt;input type="checkbox" id="" name="" checked="" value="" required&gt;</t>
-  </si>
-  <si>
     <t>Alterar &lt;label for="checkbox-id"&gt;Nome</t>
   </si>
   <si>
@@ -173,31 +162,46 @@
     <t>Alterar &lt;h5&gt;&lt;span&gt; Título</t>
   </si>
   <si>
-    <t>Alterar div card buttons</t>
-  </si>
-  <si>
     <t>Alterar &lt;small&gt; Explicação página</t>
   </si>
   <si>
-    <t>Alterer &lt;thead&gt;&lt;tr&gt;&lt;th&gt; Cabeçalhos</t>
-  </si>
-  <si>
-    <t>Alterer &lt;tbody&gt; foreach ($rsArray...</t>
-  </si>
-  <si>
     <t>Alterar $excluirDesable...</t>
   </si>
   <si>
-    <t>Alterer &lt;tr&gt;&lt;td id=""&gt; Nome</t>
-  </si>
-  <si>
-    <t>Alterer &lt;tr&gt;&lt;td&gt;&lt;button ...&gt;&lt;i...&gt;</t>
+    <t>SourceTree</t>
+  </si>
+  <si>
+    <t>Sempre</t>
+  </si>
+  <si>
+    <t>Obter -&gt; Puxar</t>
+  </si>
+  <si>
+    <t>Alterar div card (table) buttons</t>
+  </si>
+  <si>
+    <t>Alterar &lt;input type="checkbox" id="" name="" checked/unchecked&gt;</t>
+  </si>
+  <si>
+    <t>Alterar &lt;input type="hidden" id="" name="" value=""&gt;</t>
+  </si>
+  <si>
+    <t>Alterar &lt;thead&gt;&lt;tr&gt;&lt;th&gt; Cabeçalhos</t>
+  </si>
+  <si>
+    <t>Alterar &lt;tbody&gt; foreach ($rsArray...</t>
+  </si>
+  <si>
+    <t>Alterar &lt;tr&gt;&lt;td id=""&gt; Nome</t>
+  </si>
+  <si>
+    <t>Alterar &lt;tr&gt;&lt;td&gt;&lt;button ...&gt;&lt;i...&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,155 +662,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,239 +1125,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AZ42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32:D32"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="18.1640625" style="2"/>
+    <col min="1" max="1" width="3.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="18.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:52" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+    <row r="2" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:52" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="53"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="34"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="22"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>1</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="41"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="D5" s="28"/>
+      <c r="E5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="21"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
+      <c r="AR5" s="21"/>
+      <c r="AS5" s="21"/>
+      <c r="AT5" s="21"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="21"/>
+      <c r="AW5" s="21"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="22"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="7"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1399,25 +1399,23 @@
       <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
-      <c r="AZ6" s="7"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="AZ6" s="5"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1463,27 +1461,23 @@
       <c r="AW7" s="3"/>
       <c r="AX7" s="3"/>
       <c r="AY7" s="3"/>
-      <c r="AZ7" s="7"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>11</v>
+      <c r="AZ7" s="5"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1529,27 +1523,25 @@
       <c r="AW8" s="3"/>
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
-      <c r="AZ8" s="7"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>12</v>
+      <c r="AZ8" s="5"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1595,27 +1587,25 @@
       <c r="AW9" s="3"/>
       <c r="AX9" s="3"/>
       <c r="AY9" s="3"/>
-      <c r="AZ9" s="7"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>7</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>20</v>
+      <c r="AZ9" s="5"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1661,27 +1651,25 @@
       <c r="AW10" s="3"/>
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
-      <c r="AZ10" s="7"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>8</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>21</v>
+      <c r="AZ10" s="5"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1727,27 +1715,25 @@
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
       <c r="AY11" s="3"/>
-      <c r="AZ11" s="7"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>9</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>22</v>
+      <c r="AZ11" s="5"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1793,22 +1779,24 @@
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
       <c r="AY12" s="3"/>
-      <c r="AZ12" s="7"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>23</v>
+      <c r="AZ12" s="5"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1855,22 +1843,24 @@
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
       <c r="AY13" s="3"/>
-      <c r="AZ13" s="7"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>11</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>25</v>
+      <c r="AZ13" s="5"/>
+    </row>
+    <row r="14" spans="1:52" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="D14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1917,194 +1907,206 @@
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
       <c r="AY14" s="3"/>
-      <c r="AZ14" s="7"/>
-    </row>
-    <row r="15" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="AZ14" s="5"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="5"/>
+    </row>
+    <row r="16" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="22"/>
-      <c r="AR15" s="22"/>
-      <c r="AS15" s="22"/>
-      <c r="AT15" s="22"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-      <c r="AX15" s="22"/>
-      <c r="AY15" s="22"/>
-      <c r="AZ15" s="23"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+      <c r="E16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="15"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" s="47">
         <v>13</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="43"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="44"/>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="52"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24"/>
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="25"/>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="7"/>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2151,188 +2153,192 @@
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
       <c r="AY18" s="3"/>
-      <c r="AZ18" s="7"/>
-    </row>
-    <row r="19" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+      <c r="AZ18" s="5"/>
+    </row>
+    <row r="19" spans="1:52" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="5"/>
+    </row>
+    <row r="20" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="10"/>
-      <c r="AX19" s="10"/>
-      <c r="AY19" s="10"/>
-      <c r="AZ19" s="37"/>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
+      <c r="D20" s="53"/>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="18"/>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>14</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="43"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="43"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="43"/>
-      <c r="AJ20" s="43"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="43"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="43"/>
-      <c r="AP20" s="43"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="43"/>
-      <c r="AS20" s="43"/>
-      <c r="AT20" s="43"/>
-      <c r="AU20" s="43"/>
-      <c r="AV20" s="43"/>
-      <c r="AW20" s="43"/>
-      <c r="AX20" s="43"/>
-      <c r="AY20" s="43"/>
-      <c r="AZ20" s="44"/>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="24"/>
+      <c r="AW21" s="24"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="25"/>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="7"/>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2379,16 +2385,16 @@
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
       <c r="AY22" s="3"/>
-      <c r="AZ22" s="7"/>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="6"/>
+      <c r="AZ22" s="5"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2435,16 +2441,16 @@
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
       <c r="AY23" s="3"/>
-      <c r="AZ23" s="7"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="6"/>
+      <c r="AZ23" s="5"/>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2491,188 +2497,190 @@
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
       <c r="AY24" s="3"/>
-      <c r="AZ24" s="7"/>
-    </row>
-    <row r="25" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="27" t="s">
+      <c r="AZ24" s="5"/>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="5"/>
+    </row>
+    <row r="26" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
-      <c r="AS25" s="10"/>
-      <c r="AT25" s="10"/>
-      <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="10"/>
-      <c r="AX25" s="10"/>
-      <c r="AY25" s="10"/>
-      <c r="AZ25" s="37"/>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
+      <c r="D26" s="53"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="18"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" s="35">
         <v>15</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B27" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="43"/>
-      <c r="AC26" s="43"/>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43"/>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="43"/>
-      <c r="AS26" s="43"/>
-      <c r="AT26" s="43"/>
-      <c r="AU26" s="43"/>
-      <c r="AV26" s="43"/>
-      <c r="AW26" s="43"/>
-      <c r="AX26" s="43"/>
-      <c r="AY26" s="43"/>
-      <c r="AZ26" s="44"/>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
+      <c r="AR27" s="24"/>
+      <c r="AS27" s="24"/>
+      <c r="AT27" s="24"/>
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="24"/>
+      <c r="AW27" s="24"/>
+      <c r="AX27" s="24"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="25"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="7"/>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2719,188 +2727,194 @@
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
       <c r="AY28" s="3"/>
-      <c r="AZ28" s="7"/>
-    </row>
-    <row r="29" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="11" t="s">
+      <c r="AZ28" s="5"/>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="5"/>
+    </row>
+    <row r="30" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="18"/>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" s="35">
+        <v>16</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="24"/>
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="24"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="24"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="24"/>
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="25"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="37"/>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
-        <v>16</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AM30" s="43"/>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="43"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="43"/>
-      <c r="AR30" s="43"/>
-      <c r="AS30" s="43"/>
-      <c r="AT30" s="43"/>
-      <c r="AU30" s="43"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="43"/>
-      <c r="AX30" s="43"/>
-      <c r="AY30" s="43"/>
-      <c r="AZ30" s="44"/>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
-      <c r="AW31" s="3"/>
-      <c r="AX31" s="3"/>
-      <c r="AY31" s="3"/>
-      <c r="AZ31" s="7"/>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2947,188 +2961,194 @@
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
       <c r="AY32" s="3"/>
-      <c r="AZ32" s="7"/>
-    </row>
-    <row r="33" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="11" t="s">
+      <c r="AZ32" s="5"/>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="5"/>
+    </row>
+    <row r="34" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="18"/>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" s="35">
+        <v>17</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="24"/>
+      <c r="AS35" s="24"/>
+      <c r="AT35" s="24"/>
+      <c r="AU35" s="24"/>
+      <c r="AV35" s="24"/>
+      <c r="AW35" s="24"/>
+      <c r="AX35" s="24"/>
+      <c r="AY35" s="24"/>
+      <c r="AZ35" s="25"/>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="37"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
-        <v>17</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="43"/>
-      <c r="AC34" s="43"/>
-      <c r="AD34" s="43"/>
-      <c r="AE34" s="43"/>
-      <c r="AF34" s="43"/>
-      <c r="AG34" s="43"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="43"/>
-      <c r="AJ34" s="43"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="43"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="43"/>
-      <c r="AO34" s="43"/>
-      <c r="AP34" s="43"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="43"/>
-      <c r="AS34" s="43"/>
-      <c r="AT34" s="43"/>
-      <c r="AU34" s="43"/>
-      <c r="AV34" s="43"/>
-      <c r="AW34" s="43"/>
-      <c r="AX34" s="43"/>
-      <c r="AY34" s="43"/>
-      <c r="AZ34" s="44"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="7"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3175,16 +3195,18 @@
       <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
       <c r="AY36" s="3"/>
-      <c r="AZ36" s="7"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="6"/>
+      <c r="AZ36" s="5"/>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3231,16 +3253,18 @@
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
       <c r="AY37" s="3"/>
-      <c r="AZ37" s="7"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="6"/>
+      <c r="AZ37" s="5"/>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -3287,16 +3311,18 @@
       <c r="AW38" s="3"/>
       <c r="AX38" s="3"/>
       <c r="AY38" s="3"/>
-      <c r="AZ38" s="7"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="6"/>
+      <c r="AZ38" s="5"/>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3343,16 +3369,18 @@
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
       <c r="AY39" s="3"/>
-      <c r="AZ39" s="7"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="6"/>
+      <c r="AZ39" s="5"/>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3399,16 +3427,16 @@
       <c r="AW40" s="3"/>
       <c r="AX40" s="3"/>
       <c r="AY40" s="3"/>
-      <c r="AZ40" s="7"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="6"/>
+      <c r="AZ40" s="5"/>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3455,103 +3483,905 @@
       <c r="AW41" s="3"/>
       <c r="AX41" s="3"/>
       <c r="AY41" s="3"/>
-      <c r="AZ41" s="7"/>
-    </row>
-    <row r="42" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="10"/>
-      <c r="AT42" s="10"/>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
-      <c r="AW42" s="10"/>
-      <c r="AX42" s="10"/>
-      <c r="AY42" s="10"/>
-      <c r="AZ42" s="37"/>
+      <c r="AZ41" s="5"/>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="5"/>
+    </row>
+    <row r="43" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="44"/>
+      <c r="E43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="7"/>
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="7"/>
+      <c r="AY43" s="7"/>
+      <c r="AZ43" s="18"/>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="21"/>
+      <c r="AQ44" s="21"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="21"/>
+      <c r="AT44" s="21"/>
+      <c r="AU44" s="21"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="21"/>
+      <c r="AY44" s="21"/>
+      <c r="AZ44" s="22"/>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="21"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="21"/>
+      <c r="AK45" s="21"/>
+      <c r="AL45" s="21"/>
+      <c r="AM45" s="21"/>
+      <c r="AN45" s="21"/>
+      <c r="AO45" s="21"/>
+      <c r="AP45" s="21"/>
+      <c r="AQ45" s="21"/>
+      <c r="AR45" s="21"/>
+      <c r="AS45" s="21"/>
+      <c r="AT45" s="21"/>
+      <c r="AU45" s="21"/>
+      <c r="AV45" s="21"/>
+      <c r="AW45" s="21"/>
+      <c r="AX45" s="21"/>
+      <c r="AY45" s="21"/>
+      <c r="AZ45" s="22"/>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="3"/>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3"/>
+      <c r="AO46" s="3"/>
+      <c r="AP46" s="3"/>
+      <c r="AQ46" s="3"/>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+      <c r="AY46" s="3"/>
+      <c r="AZ46" s="5"/>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3"/>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3"/>
+      <c r="AZ47" s="5"/>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="5"/>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="5"/>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="5"/>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="3"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
+      <c r="AM51" s="3"/>
+      <c r="AN51" s="3"/>
+      <c r="AO51" s="3"/>
+      <c r="AP51" s="3"/>
+      <c r="AQ51" s="3"/>
+      <c r="AR51" s="3"/>
+      <c r="AS51" s="3"/>
+      <c r="AT51" s="3"/>
+      <c r="AU51" s="3"/>
+      <c r="AV51" s="3"/>
+      <c r="AW51" s="3"/>
+      <c r="AX51" s="3"/>
+      <c r="AY51" s="3"/>
+      <c r="AZ51" s="5"/>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="5"/>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="5"/>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="5"/>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+      <c r="AJ55" s="3"/>
+      <c r="AK55" s="3"/>
+      <c r="AL55" s="3"/>
+      <c r="AM55" s="3"/>
+      <c r="AN55" s="3"/>
+      <c r="AO55" s="3"/>
+      <c r="AP55" s="3"/>
+      <c r="AQ55" s="3"/>
+      <c r="AR55" s="3"/>
+      <c r="AS55" s="3"/>
+      <c r="AT55" s="3"/>
+      <c r="AU55" s="3"/>
+      <c r="AV55" s="3"/>
+      <c r="AW55" s="3"/>
+      <c r="AX55" s="3"/>
+      <c r="AY55" s="3"/>
+      <c r="AZ55" s="5"/>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+      <c r="AK56" s="14"/>
+      <c r="AL56" s="14"/>
+      <c r="AM56" s="14"/>
+      <c r="AN56" s="14"/>
+      <c r="AO56" s="14"/>
+      <c r="AP56" s="14"/>
+      <c r="AQ56" s="14"/>
+      <c r="AR56" s="14"/>
+      <c r="AS56" s="14"/>
+      <c r="AT56" s="14"/>
+      <c r="AU56" s="14"/>
+      <c r="AV56" s="14"/>
+      <c r="AW56" s="14"/>
+      <c r="AX56" s="14"/>
+      <c r="AY56" s="14"/>
+      <c r="AZ56" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
